--- a/theo/outputs/WMB/correlations.xlsx
+++ b/theo/outputs/WMB/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.6457440704008329</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1017681396543231</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1162027605331963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.6982040972351232</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.6893065169111739</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03354268704004644</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03321525711614744</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3010856108822396</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2978576377885552</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03354268704004644</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03321525711614744</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3010856108822396</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2978576377885552</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>8.402448754490527e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.03612109602479474</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.001791052471214916</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.6457440704008329</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.06348391817742562</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.01005049722142168</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.2307383753201729</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4324186345095671</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.06946861433369983</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.06964234792024249</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.3754930979990755</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.3790215817085976</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.11604455457063</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.1158557133680499</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.3339306742229546</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.337344171185568</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1270386810766141</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.2112265554412971</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.07742694651253282</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1017681396543231</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.06348391817742562</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8595070290436878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.07237666406611983</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.08756792721369151</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.02269725737401166</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.02230937096228449</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.02629186306172981</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.025627159852339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1741573855867806</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1759732780801133</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.08528212346026127</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.08430707801822837</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.2525729368255307</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1088946140704432</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9252559781825517</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1162027605331963</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.01005049722142168</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8595070290436878</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1505322468753618</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.07456049775588058</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>-0.02642779245756672</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>-0.02635498776709185</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.06839922093837571</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.06760536611865756</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.08864749254019938</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.09003615331065327</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.09642263125143917</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.0949272910774365</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.2774639783534122</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1536030828625389</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.7375087092916571</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.6982040972351232</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.2307383753201729</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.07237666406611983</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1505322468753618</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.495312461638978</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.04040923521540555</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.04004648846441864</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.3199297508149358</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.3177588847222702</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.05858339708588184</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.05870826725124108</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.3232328068194246</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.3211915822066049</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1489204389392653</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.3256857468874915</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1525928408778388</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.6893065169111739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4324186345095671</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.08756792721369151</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.07456049775588058</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.495312461638978</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1017109300112371</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1010948324767459</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.6733229988615664</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6704293036104257</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.08449063825702011</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.08381499097422232</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.6704375541760575</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.6675268673108818</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.02345141052092269</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.048951783233455</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.009978093651536596</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03354268704004644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.06946861433369983</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.02269725737401166</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>-0.02642779245756672</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.04040923521540555</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1017109300112371</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999143491819212</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1651873971502577</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1655402437749285</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.05872702028054468</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.05973407658743211</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1513378168324723</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1515317426854134</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.006915401064943496</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>0.009595514888506983</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.05767547526324129</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03321525711614744</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.06964234792024249</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.02230937096228449</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>-0.02635498776709185</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.04004648846441864</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1010948324767459</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999143491819212</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.165072128476429</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1654378641666011</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.05984634931465885</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.06086975071977862</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1509356111683366</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1511398350648082</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.007556508997225906</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>0.0112118455665198</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.05666284975006503</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3010856108822396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.3754930979990755</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.02629186306172981</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.06839922093837571</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.3199297508149358</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.6733229988615664</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1651873971502577</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.165072128476429</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999188501009659</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.04083284153116094</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.04105073050294919</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9647047634776013</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9645799682619083</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.08006283649932099</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.2235175974407297</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.07374452261173148</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2978576377885552</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.3790215817085976</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.025627159852339</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.06760536611865756</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.3177588847222702</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6704293036104257</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1655402437749285</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1654378641666011</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999188501009659</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.04111770326111942</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.04134512326130746</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9646278940952486</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9646579470056791</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.07980944977680768</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.2221477811570071</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.07395880408541051</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03354268704004644</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.11604455457063</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1741573855867806</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.08864749254019938</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.05858339708588184</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.08449063825702011</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.05872702028054468</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.05984634931465885</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>-0.04083284153116094</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>-0.04111770326111942</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999143491819212</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1651873971502577</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1655402437749285</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.2112570494182964</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.04214563950389475</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.1008038550571111</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03321525711614744</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.1158557133680499</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1759732780801133</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.09003615331065327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.05870826725124108</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.08381499097422232</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.05973407658743211</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.06086975071977862</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>-0.04105073050294919</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>-0.04134512326130746</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9999143491819212</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.165072128476429</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1654378641666011</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.2118662443380767</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.0420964101202454</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.1017591316603839</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3010856108822396</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.3339306742229546</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.08528212346026127</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.09642263125143917</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.3232328068194246</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.6704375541760575</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1513378168324723</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1509356111683366</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9647047634776013</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9646278940952486</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1651873971502577</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.165072128476429</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999188501009659</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.009004744539283951</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.2119248613391013</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.02136806953040884</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2978576377885552</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.337344171185568</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.08430707801822837</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.0949272910774365</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.3211915822066049</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.6675268673108818</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1515317426854134</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1511398350648082</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9645799682619083</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9646579470056791</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1655402437749285</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1654378641666011</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999188501009659</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.008081107067329091</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.2104069739750531</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.02213965181687399</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>8.402448754490527e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1270386810766141</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.2525729368255307</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.2774639783534122</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1489204389392653</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.02345141052092269</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.006915401064943496</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.007556508997225906</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.08006283649932099</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.07980944977680768</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.2112570494182964</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.2118662443380767</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.009004744539283951</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.008081107067329091</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.4954609044952073</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.3430277072159794</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.03612109602479474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.2112265554412971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1088946140704432</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1536030828625389</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.3256857468874915</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.048951783233455</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>0.009595514888506983</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>0.0112118455665198</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.2235175974407297</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.2221477811570071</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>0.04214563950389475</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>0.0420964101202454</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.2119248613391013</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.2104069739750531</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.4954609044952073</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2210631905139228</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.001791052471214916</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.07742694651253282</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9252559781825517</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.7375087092916571</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1525928408778388</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.009978093651536596</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.05767547526324129</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.05666284975006503</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.07374452261173148</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.07395880408541051</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.1008038550571111</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.1017591316603839</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.02136806953040884</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.02213965181687399</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.3430277072159794</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2210631905139228</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.7483638385264635</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.05389556927689061</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.05247053560136733</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2851081780206659</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.7578581471168523</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.007083699137647395</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.006941562663081809</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.02575472264356677</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.02626890473291144</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.007083699137647395</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.006941562663081809</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.02575472264356677</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.02626890473291144</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.01051964828640896</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.01951381264425969</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.01211719317401118</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.7483638385264635</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.03400173023038178</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.01836632036548743</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.03449404263753302</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8213542152613987</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05250097628352568</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05245295560035764</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3198248177363432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3198183948461384</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04742622675005217</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.04744711689687063</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.3033775582926203</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.3033407823020114</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.01686989598726584</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.01426949608747465</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.009617710829291179</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.05389556927689061</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.03400173023038178</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.4405578072416576</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.01795364432058311</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.05649494923835542</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.1897469556764588</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.1877909859052363</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.03287052806725733</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.03289426783022731</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.07770470610273511</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.07818270644682299</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.01239016330520278</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.01283312029602346</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5290992953864941</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.3950003096076123</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9723915355078642</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.05247053560136733</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.01836632036548743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.4405578072416576</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1880411471062996</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>0.0155339725653894</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.02399536541581436</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.02468533061913163</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.00512867549573618</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.004858830794325108</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.06001404322464383</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.0588275558293218</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.0004036459272274401</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.0001675023334871621</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5286739862143776</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1202998493819626</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3703070422235414</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2851081780206659</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.03449404263753302</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.01795364432058311</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1880411471062996</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>0.08260943311842385</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.03293076804905679</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.03301902817375073</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.07912415451894199</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.0802777675846473</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.03694003432832036</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.03645109174442723</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.07975695603523941</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.08081863780237639</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1607672734538076</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2317626405333213</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1037987869602804</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.7578581471168523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8213542152613987</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.05649494923835542</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>0.0155339725653894</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>0.08260943311842385</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04718964893983911</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04710154615755695</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2777687624456137</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.277660333649122</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.04866833217966402</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.04844397388892017</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2780965239254133</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2779722501160604</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03873440745004372</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.05102601276850079</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.02625275056550349</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.007083699137647395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05250097628352568</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.1897469556764588</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.02399536541581436</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.03293076804905679</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04718964893983911</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997284110978377</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1659169326238357</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1662218101011327</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>0.007860007830247791</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>0.006494295666355705</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1684591466057695</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1684765130437369</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2047011684487645</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1076932848765492</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.1979476767990707</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.006941562663081809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05245295560035764</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.1877909859052363</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.02468533061913163</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.03301902817375073</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04710154615755695</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997284110978377</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1657088280727867</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1660789479666279</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>0.00683292975033594</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>0.005456113644398841</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1679416487290482</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1680233074840172</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2034547851256311</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1069220854804773</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1958736906700064</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.02575472264356677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3198248177363432</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.03287052806725733</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.00512867549573618</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.07912415451894199</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2777687624456137</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1659169326238357</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1657088280727867</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998090807081504</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.003154567735521612</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.00349096600923271</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9721930998690738</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9719275887697045</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.03592786249698118</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.06072383021163997</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.02740906064983036</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.02626890473291144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3198183948461384</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.03289426783022731</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.004858830794325108</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.0802777675846473</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.277660333649122</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1662218101011327</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1660789479666279</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998090807081504</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.003127570652867962</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.003478188801252977</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9720121193235924</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9721140703210094</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.03569524262973887</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.06150296295678293</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.02774284857574508</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.007083699137647395</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04742622675005217</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.07770470610273511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.06001404322464383</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.03694003432832036</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.04866833217966402</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>0.007860007830247791</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>0.00683292975033594</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.003154567735521612</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.003127570652867962</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997284110978377</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1659169326238357</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1662218101011327</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.1219364215671308</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.01803531578334959</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.06400504593890094</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.006941562663081809</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.04744711689687063</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.07818270644682299</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.0588275558293218</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.03645109174442723</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.04844397388892017</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>0.006494295666355705</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>0.005456113644398841</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.00349096600923271</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.003478188801252977</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997284110978377</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1657088280727867</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1660789479666279</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.1213627598892194</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.01813040196940713</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.06417957903035065</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.02575472264356677</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.3033775582926203</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.01239016330520278</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.0004036459272274401</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.07975695603523941</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2780965239254133</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1684591466057695</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1679416487290482</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9721930998690738</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9720121193235924</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1659169326238357</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1657088280727867</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998090807081504</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.01406546270703483</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.05726914061049902</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.01441732699350899</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.02626890473291144</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.3033407823020114</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.01283312029602346</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.0001675023334871621</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.08081863780237639</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2779722501160604</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1684765130437369</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1680233074840172</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9719275887697045</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9721140703210094</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1662218101011327</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1660789479666279</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998090807081504</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.01392664945476257</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.05799403128215608</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.01517856049334892</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.01051964828640896</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.01686989598726584</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5290992953864941</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5286739862143776</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1607672734538076</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03873440745004372</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2047011684487645</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2034547851256311</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.03592786249698118</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.03569524262973887</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.1219364215671308</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.1213627598892194</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.01406546270703483</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.01392664945476257</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4871961029372688</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5693981175057018</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.01951381264425969</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.01426949608747465</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.3950003096076123</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1202998493819626</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2317626405333213</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.05102601276850079</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1076932848765492</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1069220854804773</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.06072383021163997</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.06150296295678293</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.01803531578334959</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.01813040196940713</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.05726914061049902</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.05799403128215608</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4871961029372688</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4364530030774387</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.01211719317401118</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.009617710829291179</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9723915355078642</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3703070422235414</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1037987869602804</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.02625275056550349</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.1979476767990707</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1958736906700064</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.02740906064983036</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.02774284857574508</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.06400504593890094</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.06417957903035065</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.01441732699350899</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.01517856049334892</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5693981175057018</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4364530030774387</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.4166448275920133</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1095487857433729</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1078996892774292</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5141483883374659</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.4315992758058103</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.006310804224422428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.006170590700184206</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.01449517654523565</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.01310477732975311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.006310804224422428</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.006170590700184206</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.01449517654523565</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.01310477732975311</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.005650849845007888</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.01159768285746332</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.003096611167445599</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.4166448275920133</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.07603736550603327</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.0764776181876044</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.3703894302274429</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9359361661182894</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02864642949210444</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02828576575082999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1612843679868458</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1570257025209434</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03097860929444054</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03126115079338999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1510268881372133</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1467730259734912</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.0008662714567653939</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.007124401443813023</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.003465838754622311</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.1095487857433729</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.07603736550603327</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.5218162324477872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.07177360526774015</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.05830852114684375</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.1172376385974654</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.1129533733463663</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.04698675152744998</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.04762207796988074</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.005613681175990236</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.008530915155260096</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.03754153216040182</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.03839431344812314</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.489615940052001</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.3503329360610444</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9506514649597819</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.1078996892774292</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.0764776181876044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.5218162324477872</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2097978080799023</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.07978336630198303</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.03234913176743439</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.03175717861820708</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.0106593129972313</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.009668576342014103</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>-0.01309243788470208</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>-0.008627844495072211</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.009601202360161263</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.008376315281557252</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4883242477097662</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1457902904867042</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.4235872772678835</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.5141483883374659</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.3703894302274429</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.07177360526774015</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2097978080799023</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.3823471516179591</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.001587084757971019</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.000957053350149276</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.04026797543413168</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.03661910934966922</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.009418297834727011</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.009973205575233894</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.04157372021264103</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.03811984618234554</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1410180994479584</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.153680529291714</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1036857648072396</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.4315992758058103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9359361661182894</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.05830852114684375</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.07978336630198303</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.3823471516179591</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03330622459154408</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03369430746864816</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1966072062166324</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2003785878364125</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03224314290874447</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03265670869609285</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1964314853510126</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.2002069667364431</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.02190064527173006</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.03393435599783787</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.02275499445650209</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.006310804224422428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02864642949210444</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.1172376385974654</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.03234913176743439</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.001587084757971019</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03330622459154408</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9986901517002987</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1719244620318635</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1718504928490825</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.04590506484984001</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.04689723097534593</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1804785698244898</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1803211532077602</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.08826928837652913</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.07790587213236395</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.124256024022556</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.006170590700184206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02828576575082999</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.1129533733463663</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.03175717861820708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.000957053350149276</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03369430746864816</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9986901517002987</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1720623268029702</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1724286037667473</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.04598856807600369</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.04706490132345326</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1805718389145554</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1808742946054442</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.08439743562257052</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.07557492141487362</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.1190825472695514</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.01449517654523565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1612843679868458</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.04698675152744998</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.0106593129972313</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.04026797543413168</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1966072062166324</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1719244620318635</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1720623268029702</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9987121559231293</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.0004601857755436368</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.001016005249123937</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9706214699674307</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9693788179060641</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.05896179603963383</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1149316284113177</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.05411848948059228</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.01310477732975311</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1570257025209434</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.04762207796988074</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.009668576342014103</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.03661910934966922</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2003785878364125</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1718504928490825</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1724286037667473</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9987121559231293</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.001304605985128767</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.001844449661867092</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9694510994053113</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9706988619942264</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.05859905897460142</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1153815748372706</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.0540979129456727</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.006310804224422428</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03097860929444054</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.005613681175990236</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>-0.01309243788470208</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.009418297834727011</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03224314290874447</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.04590506484984001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.04598856807600369</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.0004601857755436368</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.001304605985128767</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9986901517002987</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1719244620318635</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1718504928490825</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.01734396215973523</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.02087474088603184</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.001962452913030079</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.006170590700184206</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03126115079338999</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.008530915155260096</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>-0.008627844495072211</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.009973205575233894</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03265670869609285</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.04689723097534593</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.04706490132345326</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.001016005249123937</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.001844449661867092</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9986901517002987</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1720623268029702</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1724286037667473</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01588120510390896</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.01956416474200184</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.003519809248500889</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.01449517654523565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1510268881372133</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.03754153216040182</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.009601202360161263</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.04157372021264103</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1964314853510126</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1804785698244898</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1805718389145554</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9706214699674307</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9694510994053113</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1719244620318635</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1720623268029702</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9987121559231293</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.04859997361292767</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1181950955633213</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.04627052549949998</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.01310477732975311</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1467730259734912</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.03839431344812314</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.008376315281557252</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.03811984618234554</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.2002069667364431</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1803211532077602</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1808742946054442</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9693788179060641</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9706988619942264</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1718504928490825</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1724286037667473</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9987121559231293</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.0482012323042933</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1182785387915356</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.0467727877182271</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.005650849845007888</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.0008662714567653939</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.489615940052001</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4883242477097662</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1410180994479584</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.02190064527173006</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.08826928837652913</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.08439743562257052</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.05896179603963383</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.05859905897460142</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.01734396215973523</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01588120510390896</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.04859997361292767</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.0482012323042933</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.50740101701776</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5395363185317069</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.01159768285746332</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.007124401443813023</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.3503329360610444</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1457902904867042</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.153680529291714</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.03393435599783787</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.07790587213236395</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.07557492141487362</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1149316284113177</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1153815748372706</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.02087474088603184</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.01956416474200184</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1181950955633213</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1182785387915356</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.50740101701776</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3816763776552071</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.003096611167445599</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.003465838754622311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9506514649597819</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.4235872772678835</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1036857648072396</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.02275499445650209</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.124256024022556</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.1190825472695514</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.05411848948059228</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.0540979129456727</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.001962452913030079</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.003519809248500889</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.04627052549949998</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.0467727877182271</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5395363185317069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3816763776552071</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
